--- a/TestData/import_employee.xlsx
+++ b/TestData/import_employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9660"/>
+    <workbookView windowWidth="28800" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="导入数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>工号</t>
   </si>
@@ -64,10 +64,10 @@
     <t>最后工作日期</t>
   </si>
   <si>
-    <t>孔笑枫</t>
-  </si>
-  <si>
-    <t>15236790451</t>
+    <t>方赫纯</t>
+  </si>
+  <si>
+    <t>15202376549</t>
   </si>
   <si>
     <t>女</t>
@@ -76,28 +76,124 @@
     <t>居民身份证</t>
   </si>
   <si>
-    <t>652823199503281751</t>
-  </si>
-  <si>
-    <t>1995/03/28</t>
+    <t>450332198001101047</t>
+  </si>
+  <si>
+    <t>1980/01/10</t>
   </si>
   <si>
     <t>全职</t>
   </si>
   <si>
-    <t>范加宏</t>
-  </si>
-  <si>
-    <t>13014825639</t>
+    <t>缪马贵</t>
+  </si>
+  <si>
+    <t>15263751240</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>340111197912131412</t>
-  </si>
-  <si>
-    <t>1979/12/13</t>
+    <t>210224196612051852</t>
+  </si>
+  <si>
+    <t>1966/12/05</t>
+  </si>
+  <si>
+    <t>宣枝</t>
+  </si>
+  <si>
+    <t>15142790583</t>
+  </si>
+  <si>
+    <t>500231197908111460</t>
+  </si>
+  <si>
+    <t>1979/08/11</t>
+  </si>
+  <si>
+    <t>杨义朋</t>
+  </si>
+  <si>
+    <t>13242390865</t>
+  </si>
+  <si>
+    <t>350782196010012612</t>
+  </si>
+  <si>
+    <t>1960/10/01</t>
+  </si>
+  <si>
+    <t>王卡奇</t>
+  </si>
+  <si>
+    <t>15854102876</t>
+  </si>
+  <si>
+    <t>540100195202261916</t>
+  </si>
+  <si>
+    <t>1952/02/26</t>
+  </si>
+  <si>
+    <t>鱼馨</t>
+  </si>
+  <si>
+    <t>13673945216</t>
+  </si>
+  <si>
+    <t>210403198905242722</t>
+  </si>
+  <si>
+    <t>1989/05/24</t>
+  </si>
+  <si>
+    <t>步凯达</t>
+  </si>
+  <si>
+    <t>13714326790</t>
+  </si>
+  <si>
+    <t>32100019740711258X</t>
+  </si>
+  <si>
+    <t>1974/07/11</t>
+  </si>
+  <si>
+    <t>卫嘉</t>
+  </si>
+  <si>
+    <t>15204695217</t>
+  </si>
+  <si>
+    <t>542224196207051988</t>
+  </si>
+  <si>
+    <t>1962/07/05</t>
+  </si>
+  <si>
+    <t>步都玲</t>
+  </si>
+  <si>
+    <t>15738601725</t>
+  </si>
+  <si>
+    <t>50010619541213123X</t>
+  </si>
+  <si>
+    <t>1954/12/13</t>
+  </si>
+  <si>
+    <t>熊都伯</t>
+  </si>
+  <si>
+    <t>15816408925</t>
+  </si>
+  <si>
+    <t>530302197310261404</t>
+  </si>
+  <si>
+    <t>1973/10/26</t>
   </si>
 </sst>
 </file>
@@ -105,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -138,22 +234,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,24 +257,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -201,9 +282,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,9 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,10 +335,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,9 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,49 +392,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,19 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,103 +548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +604,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -523,15 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,6 +639,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,171 +692,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
@@ -746,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +856,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1928,13 +2025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.3557692307692" style="1" customWidth="1"/>
@@ -1992,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:11">
+    <row r="2" ht="16.8" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2017,11 +2114,18 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" t="s">
         <v>22</v>
       </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
-    <row r="3" ht="16.8" spans="1:11">
+    <row r="3" ht="16.8" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2046,9 +2150,304 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" t="s">
         <v>22</v>
       </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:16">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:16">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:16">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:16">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:16">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:16">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:16">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:16">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/TestData/import_employee.xlsx
+++ b/TestData/import_employee.xlsx
@@ -200,11 +200,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -221,29 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,10 +236,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,17 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,8 +288,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,14 +306,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,22 +351,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,79 +393,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,97 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +596,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -614,21 +630,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -639,6 +640,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,197 +693,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2025,71 +2032,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="12" style="1" customWidth="1"/>
+    <col min="1" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7019230769231" style="2" customWidth="1"/>
+    <col min="8" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.3557692307692" style="1" customWidth="1"/>
     <col min="13" max="16" width="12" style="1" customWidth="1"/>
     <col min="17" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:16">
+    <row r="2" ht="16.8" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2108,24 +2117,17 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
     </row>
-    <row r="3" ht="16.8" spans="1:16">
+    <row r="3" ht="16.8" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2144,24 +2146,17 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
       <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2180,24 +2175,17 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
       <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
     </row>
-    <row r="5" customHeight="1" spans="1:16">
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2216,24 +2204,17 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
       <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
     </row>
-    <row r="6" customHeight="1" spans="1:16">
+    <row r="6" customHeight="1" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2252,24 +2233,17 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
       <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
     </row>
-    <row r="7" customHeight="1" spans="1:16">
+    <row r="7" customHeight="1" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2288,24 +2262,17 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
       <c r="K7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
     </row>
-    <row r="8" customHeight="1" spans="1:16">
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2324,24 +2291,17 @@
       <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
       <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
     </row>
-    <row r="9" customHeight="1" spans="1:16">
+    <row r="9" customHeight="1" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2360,24 +2320,17 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
       <c r="K9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
     </row>
-    <row r="10" customHeight="1" spans="1:16">
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2396,24 +2349,17 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H10" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
     </row>
-    <row r="11" customHeight="1" spans="1:16">
+    <row r="11" customHeight="1" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2432,22 +2378,54 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+    </row>
+    <row r="12" customHeight="1" spans="4:4">
+      <c r="D12"/>
+    </row>
+    <row r="13" customHeight="1" spans="4:4">
+      <c r="D13"/>
+    </row>
+    <row r="14" customHeight="1" spans="4:4">
+      <c r="D14"/>
+    </row>
+    <row r="15" customHeight="1" spans="4:4">
+      <c r="D15"/>
+    </row>
+    <row r="16" customHeight="1" spans="4:4">
+      <c r="D16"/>
+    </row>
+    <row r="17" customHeight="1" spans="4:4">
+      <c r="D17"/>
+    </row>
+    <row r="18" customHeight="1" spans="4:4">
+      <c r="D18"/>
+    </row>
+    <row r="19" customHeight="1" spans="4:4">
+      <c r="D19"/>
+    </row>
+    <row r="20" customHeight="1" spans="4:4">
+      <c r="D20"/>
+    </row>
+    <row r="21" customHeight="1" spans="4:4">
+      <c r="D21"/>
+    </row>
+    <row r="22" customHeight="1" spans="4:4">
+      <c r="D22"/>
+    </row>
+    <row r="23" customHeight="1" spans="4:4">
+      <c r="D23"/>
+    </row>
+    <row r="24" customHeight="1" spans="4:4">
+      <c r="D24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
